--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[Github]\eblue3\BlueTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177818F8-52DC-40E1-AA56-FE8F35A62919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>- Log Forensics</t>
   </si>
@@ -34,47 +33,69 @@
     <t>- Network Forensics</t>
   </si>
   <si>
-    <t>- DeepBlueCLI
-- Any SIEM (ELK Stack, Qradar)</t>
-  </si>
-  <si>
-    <t>- FTK Imager
-- Browser History Viewer</t>
+    <t>- Malware Analysis</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>- Wireshark
 - Network Miner
-- Mandiant (DNS)</t>
-  </si>
-  <si>
-    <t>- Malware Analysis</t>
-  </si>
-  <si>
-    <t>- PE Viewer: PEiD, DectectItEasy, 
-- Debugger: Ollydbg (32b) + Win64dbg
-- Disasm: IDA Pro 7.5 (32b + 64b)
-- Resource: Resource Hacker
-- Registry: regshot
-- Process: procmon, ProcessHacker
-- Sandbox: Sandboxie+</t>
-  </si>
-  <si>
-    <t>Technique</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Category</t>
+- Mandiant (DNS)
+- TCPdump</t>
+  </si>
+  <si>
+    <t>- Photorec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- DeepBlueCLI
+- Any SIEM (ELK Stack, Qradar) </t>
+  </si>
+  <si>
+    <t>- FTK Imager
+- Browser History Viewer
+- Autospy</t>
+  </si>
+  <si>
+    <t>- Threat Intelligence</t>
+  </si>
+  <si>
+    <t>- Memory Forensics</t>
+  </si>
+  <si>
+    <t>- Volatility</t>
   </si>
   <si>
     <t>- Pack / Unpack
+- Process Injection
 Evading:
  + Anti Disasm
  + Anti Reverse
  + Anti EDR/EPP
- + Anti VM
-- Process Injection</t>
+ + Anti VM</t>
+  </si>
+  <si>
+    <t>- Joesandbox Cloud
+- Virus Total
+- Online sandbox: IRIS-H, CAPEv2, InQuest Labs, Intezer Analyze, Manalyzer
+- Rules, Signature: YARA, yarGen
+- Online OSINT Framework</t>
+  </si>
+  <si>
+    <t>- PE Viewer: PEiD, DectectItEasy, PEstudio, PE-bear, CFF Explorer
+- Debugger: Ollydbg (32b) + x64dbg
+- Disasm: IDA Pro 7.5 (32b + 64b)
+- Resource: Resource Hacker
+- Registry: regshot
+- Process Monitoring: Sysmon (Process Logging), procmon, ProcessHacker
+- Sandbox: Sandboxie+
+- Unpacking Support Tools: Scylla</t>
   </si>
 </sst>
 </file>
@@ -600,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -616,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -972,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -988,59 +1012,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
